--- a/File dari Pak Eflan/PERCOBAAN PROGRAM PPIC.xlsx
+++ b/File dari Pak Eflan/PERCOBAAN PROGRAM PPIC.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Project Magang\ProjectMagang\File dari Pak Eflan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050BBDC6-C01B-40A9-BB9C-A9478FDC0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name=" HASIL KESELURUHAN" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="HASIL ADMIN " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="HASIL MATERIAL HANDLING" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="NAMA KOMPONEN" sheetId="4" r:id="rId7"/>
+    <sheet name=" HASIL KESELURUHAN" sheetId="1" r:id="rId1"/>
+    <sheet name="HASIL ADMIN " sheetId="2" r:id="rId2"/>
+    <sheet name="HASIL MATERIAL HANDLING" sheetId="3" r:id="rId3"/>
+    <sheet name="NAMA KOMPONEN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="193">
   <si>
     <t>NO SPK</t>
   </si>
@@ -587,85 +606,99 @@
   </si>
   <si>
     <t>PASANG TUTUP TRAP</t>
+  </si>
+  <si>
+    <t>'created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),</t>
+  </si>
+  <si>
+    <t>'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -855,27 +888,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="13.13"/>
-    <col customWidth="1" min="3" max="3" width="23.88"/>
-    <col customWidth="1" min="4" max="4" width="15.88"/>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
-    <col customWidth="1" min="7" max="7" width="12.38"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,8 +939,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -918,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -927,7 +965,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -950,7 +989,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -973,7 +1013,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
@@ -996,7 +1037,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -1019,7 +1061,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
@@ -1036,27 +1079,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1073,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -1082,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1099,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -1108,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -1131,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
@@ -1154,7 +1197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>27</v>
@@ -1181,26 +1224,29 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="25.25"/>
-    <col customWidth="1" min="4" max="4" width="21.88"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,8 +1260,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1225,10 +1271,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1236,10 +1283,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,10 +1295,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,10 +1307,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1269,10 +1319,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1283,30 +1333,30 @@
         <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1315,26 +1365,27 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="15.88"/>
-    <col customWidth="1" min="3" max="3" width="19.75"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1354,8 +1405,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1365,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -1374,7 +1425,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -1391,7 +1443,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1452,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -1408,7 +1461,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -1425,7 +1479,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -1442,7 +1497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1508,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
@@ -1466,35 +1521,47 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.38"/>
-    <col customWidth="1" min="2" max="2" width="50.38"/>
-    <col customWidth="1" min="3" max="3" width="15.13"/>
-    <col customWidth="1" min="4" max="5" width="23.88"/>
-    <col customWidth="1" min="7" max="7" width="25.13"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1509,16 +1576,40 @@
       <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" t="str">
+        <f>CONCATENATE("'",A1,"'")</f>
+        <v>'Kode Komponen'</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("'",B1,"'")</f>
+        <v>'Nama Komponen'</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE("'",D1,"'")</f>
+        <v>'KODE KIT'</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("'",E1,"'")</f>
+        <v>'KIT'</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("'",F1,"'")</f>
+        <v>'KODE MOBIL'</v>
+      </c>
+      <c r="M1" t="str">
+        <f>CONCATENATE("'",G1,"'")</f>
+        <v>'PARAMETER 1'</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
+      <c r="C2" s="10">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1532,16 +1623,55 @@
       <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="H2" s="9" t="str">
+        <f>CONCATENATE($H$1," =&gt; ","'",A2,"'",",")</f>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1001',</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <f>CONCATENATE($I$1," =&gt; ","'",B2,"'",",")</f>
+        <v>'Nama Komponen' =&gt; 'RANGKA LANTAI',</v>
+      </c>
+      <c r="J2" s="9" t="str">
+        <f>CONCATENATE($J$1," =&gt; ","'",D2,"'",",")</f>
+        <v>'KODE KIT' =&gt; 'A01',</v>
+      </c>
+      <c r="K2" s="9" t="str">
+        <f>CONCATENATE($K$1," =&gt; ","'",E2,"'",",")</f>
+        <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
+      </c>
+      <c r="L2" s="9" t="str">
+        <f>CONCATENATE($L$1," =&gt; ","'",F2,"'",",")</f>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M2" s="9" t="str">
+        <f>CONCATENATE($M$1," =&gt; ","'",G2,"'",",")</f>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH,4 PINTU PISAH',</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" t="str">
+        <f>CONCATENATE("[", CHAR(10),H2,I2,J2,K2,L2,M2,N2,O2,"],")</f>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1001','Nama Komponen' =&gt; 'RANGKA LANTAI','KODE KIT' =&gt; 'A01','KIT' =&gt; 'KIT STALL 1 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH,4 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+      <c r="S2" t="str">
+        <f>CONCATENATE("")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
+      <c r="C3" s="10">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1555,16 +1685,51 @@
       <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="H3" s="9" t="str">
+        <f t="shared" ref="H3:H66" si="0">CONCATENATE($H$1," =&gt; ","'",A3,"'",",")</f>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1002',</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f t="shared" ref="I3:I66" si="1">CONCATENATE($I$1," =&gt; ","'",B3,"'",",")</f>
+        <v>'Nama Komponen' =&gt; 'PLAT LANTAI ',</v>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f t="shared" ref="J3:J66" si="2">CONCATENATE($J$1," =&gt; ","'",D3,"'",",")</f>
+        <v>'KODE KIT' =&gt; 'A01',</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f t="shared" ref="K3:K66" si="3">CONCATENATE($K$1," =&gt; ","'",E3,"'",",")</f>
+        <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
+      </c>
+      <c r="L3" s="9" t="str">
+        <f t="shared" ref="L3:L66" si="4">CONCATENATE($L$1," =&gt; ","'",F3,"'",",")</f>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M3" s="9" t="str">
+        <f t="shared" ref="M3:M66" si="5">CONCATENATE($M$1," =&gt; ","'",G3,"'",",")</f>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH ',</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="6">CONCATENATE("[", CHAR(10),H3,I3,J3,K3,L3,M3,N3,O3,"],")</f>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1002','Nama Komponen' =&gt; 'PLAT LANTAI ','KODE KIT' =&gt; 'A01','KIT' =&gt; 'KIT STALL 1 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH ','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
+      <c r="C4" s="10">
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1578,16 +1743,51 @@
       <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1003',</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PIPA SLANGER',</v>
+      </c>
+      <c r="J4" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A01',</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
+      </c>
+      <c r="L4" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M4" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1003','Nama Komponen' =&gt; 'PIPA SLANGER','KODE KIT' =&gt; 'A01','KIT' =&gt; 'KIT STALL 1 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
+      <c r="C5" s="10">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1601,16 +1801,51 @@
       <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="H5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1004',</v>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PLAT HITAM 2 X 75 X 60',</v>
+      </c>
+      <c r="J5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A01',</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M5" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1004','Nama Komponen' =&gt; 'PLAT HITAM 2 X 75 X 60','KODE KIT' =&gt; 'A01','KIT' =&gt; 'KIT STALL 1 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
-        <v>2.0</v>
+      <c r="C6" s="10">
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1624,16 +1859,51 @@
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="H6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1005',</v>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PLAT BIBIRAN LANTAI ',</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A01',</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL,FEL',</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1005','Nama Komponen' =&gt; 'PLAT BIBIRAN LANTAI ','KODE KIT' =&gt; 'A01','KIT' =&gt; 'KIT STALL 1 BODY WELDING','KODE MOBIL' =&gt; 'EL,FEL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.0</v>
+      <c r="C7" s="10">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>55</v>
@@ -1647,16 +1917,51 @@
       <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="H7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1006',</v>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'BRACKET BUMPER DEPAN NEW ELF',</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1006','Nama Komponen' =&gt; 'BRACKET BUMPER DEPAN NEW ELF','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
+      <c r="C8" s="10">
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>55</v>
@@ -1670,16 +1975,51 @@
       <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1007',</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PANEL RH ASSY',</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1007','Nama Komponen' =&gt; 'PANEL RH ASSY','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
-        <v>2.0</v>
+      <c r="C9" s="10">
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
@@ -1693,16 +2033,51 @@
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1008',</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PENAHAN LUMPUR LH NEW ELF',</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1008','Nama Komponen' =&gt; 'PENAHAN LUMPUR LH NEW ELF','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
+      <c r="C10" s="10">
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
@@ -1716,16 +2091,51 @@
       <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1009',</v>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PENAHAN LUMPUR RH NEW ELF',</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1009','Nama Komponen' =&gt; 'PENAHAN LUMPUR RH NEW ELF','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
+      <c r="C11" s="10">
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -1739,16 +2149,51 @@
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1010',</v>
+      </c>
+      <c r="I11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PIPA KOTAK',</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1010','Nama Komponen' =&gt; 'PIPA KOTAK','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
+      <c r="C12" s="10">
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -1762,16 +2207,51 @@
       <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1011',</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PANEL TENGAH',</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1011','Nama Komponen' =&gt; 'INNER PANEL TENGAH','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1">
-        <v>1.0</v>
+      <c r="C13" s="10">
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -1785,16 +2265,51 @@
       <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1012',</v>
+      </c>
+      <c r="I13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PINTU PENUMPANG KE-1 ',</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1012','Nama Komponen' =&gt; 'PINTU PENUMPANG KE-1 ','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
+      <c r="C14" s="10">
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -1808,16 +2323,51 @@
       <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1013',</v>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PINTU PENUMPANG KE-2',</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1013','Nama Komponen' =&gt; 'PINTU PENUMPANG KE-2','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
+      <c r="C15" s="10">
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
@@ -1831,16 +2381,51 @@
       <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1014',</v>
+      </c>
+      <c r="I15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PINTU BBM',</v>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1014','Nama Komponen' =&gt; 'PINTU BBM','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="1">
-        <v>3.0</v>
+      <c r="C16" s="10">
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -1854,16 +2439,51 @@
       <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1015',</v>
+      </c>
+      <c r="I16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'RUMAH ENGSEL TUTUP BBM',</v>
+      </c>
+      <c r="J16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A02',</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
+      </c>
+      <c r="L16" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M16" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1015','Nama Komponen' =&gt; 'RUMAH ENGSEL TUTUP BBM','KODE KIT' =&gt; 'A02','KIT' =&gt; 'KIT STALL 2 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1">
-        <v>3.0</v>
+      <c r="C17" s="10">
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>77</v>
@@ -1877,16 +2497,51 @@
       <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="H17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1016',</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP',</v>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1016','Nama Komponen' =&gt; 'TRAP','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1">
-        <v>3.0</v>
+      <c r="C18" s="10">
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>77</v>
@@ -1900,16 +2555,51 @@
       <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="H18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1017',</v>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP ELF DEPAN',</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1017','Nama Komponen' =&gt; 'TRAP ELF DEPAN','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="1">
-        <v>3.0</v>
+      <c r="C19" s="10">
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>77</v>
@@ -1923,16 +2613,51 @@
       <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="H19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1018',</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP ELF BELAKANG',</v>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M19" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1018','Nama Komponen' =&gt; 'TRAP ELF BELAKANG','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1">
-        <v>3.0</v>
+      <c r="C20" s="10">
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>77</v>
@@ -1946,16 +2671,51 @@
       <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="H20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1019',</v>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP',</v>
+      </c>
+      <c r="J20" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M20" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1019','Nama Komponen' =&gt; 'TRAP','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="1">
-        <v>33.0</v>
+      <c r="C21" s="10">
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>77</v>
@@ -1969,16 +2729,51 @@
       <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="H21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1020',</v>
+      </c>
+      <c r="I21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP ELF DEPAN',</v>
+      </c>
+      <c r="J21" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L21" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M21" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1020','Nama Komponen' =&gt; 'TRAP ELF DEPAN','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="1">
-        <v>2.0</v>
+      <c r="C22" s="10">
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>77</v>
@@ -1992,16 +2787,51 @@
       <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="H22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1021',</v>
+      </c>
+      <c r="I22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP ELF BELAKANG',</v>
+      </c>
+      <c r="J22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1021','Nama Komponen' =&gt; 'TRAP ELF BELAKANG','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="1">
-        <v>2.0</v>
+      <c r="C23" s="10">
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>77</v>
@@ -2015,16 +2845,51 @@
       <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="H23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1022',</v>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP DEPAN (1 STEP)',</v>
+      </c>
+      <c r="J23" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M23" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1022','Nama Komponen' =&gt; 'TRAP DEPAN (1 STEP)','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1">
-        <v>2.0</v>
+      <c r="C24" s="10">
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>77</v>
@@ -2038,16 +2903,51 @@
       <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="H24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1023',</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TRAP BELAKANG (1 STEP)',</v>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1023','Nama Komponen' =&gt; 'TRAP BELAKANG (1 STEP)','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="1">
-        <v>22.0</v>
+      <c r="C25" s="10">
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>77</v>
@@ -2061,16 +2961,51 @@
       <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="H25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1024',</v>
+      </c>
+      <c r="I25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF PANJANG (KHUSUS 5P)',</v>
+      </c>
+      <c r="J25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M25" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1024','Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF PANJANG (KHUSUS 5P)','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="1">
-        <v>2.0</v>
+      <c r="C26" s="10">
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>77</v>
@@ -2084,16 +3019,51 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="H26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1025',</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF SEDANG (KHUSUS 5P)',</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L26" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M26" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1025','Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF SEDANG (KHUSUS 5P)','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="1">
-        <v>2.0</v>
+      <c r="C27" s="10">
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>77</v>
@@ -2107,16 +3077,51 @@
       <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="H27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1026',</v>
+      </c>
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF PENDEK (KHUSUS 5P)',</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L27" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M27" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1026','Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF PENDEK (KHUSUS 5P)','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1">
-        <v>1.0</v>
+      <c r="C28" s="10">
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>77</v>
@@ -2130,16 +3135,51 @@
       <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="H28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1027',</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'BAGASI TOOLKIT',</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M28" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1027','Nama Komponen' =&gt; 'BAGASI TOOLKIT','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="1">
-        <v>1.0</v>
+      <c r="C29" s="10">
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>77</v>
@@ -2153,16 +3193,51 @@
       <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="H29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1028',</v>
+      </c>
+      <c r="I29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'RUMAH ENGSEL TUTUP BBM',</v>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M29" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1028','Nama Komponen' =&gt; 'RUMAH ENGSEL TUTUP BBM','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="1">
-        <v>1.0</v>
+      <c r="C30" s="10">
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>77</v>
@@ -2176,16 +3251,51 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="H30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1029',</v>
+      </c>
+      <c r="I30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'SEAT REAR BUMPER / SUPPORT BUMPER (NEW ELF) RH',</v>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M30" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1029','Nama Komponen' =&gt; 'SEAT REAR BUMPER / SUPPORT BUMPER (NEW ELF) RH','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="1">
-        <v>1.0</v>
+      <c r="C31" s="10">
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>77</v>
@@ -2199,16 +3309,51 @@
       <c r="G31" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="H31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1030',</v>
+      </c>
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'SEAT REAR BUMPER / SUPPORT BUMPER (NEW ELF) LH',</v>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L31" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M31" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1030','Nama Komponen' =&gt; 'SEAT REAR BUMPER / SUPPORT BUMPER (NEW ELF) LH','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="1">
-        <v>1.0</v>
+      <c r="C32" s="10">
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>77</v>
@@ -2222,16 +3367,51 @@
       <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="H32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1031',</v>
+      </c>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'SEAT BUMPER BELAKANG',</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M32" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1031','Nama Komponen' =&gt; 'SEAT BUMPER BELAKANG','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="1">
-        <v>12.0</v>
+      <c r="C33" s="10">
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>77</v>
@@ -2245,16 +3425,51 @@
       <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="H33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1032',</v>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'BRACKET BUMPER BELAKANG',</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1032','Nama Komponen' =&gt; 'BRACKET BUMPER BELAKANG','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="1">
-        <v>2.0</v>
+      <c r="C34" s="10">
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>77</v>
@@ -2268,16 +3483,51 @@
       <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="H34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1033',</v>
+      </c>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'BAUT BH 8X25',</v>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1033','Nama Komponen' =&gt; 'BAUT BH 8X25','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="1">
-        <v>1.0</v>
+      <c r="C35" s="10">
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>77</v>
@@ -2291,16 +3541,51 @@
       <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="H35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1034',</v>
+      </c>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'RING PLAT WP 8',</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A03',</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M35" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1034','Nama Komponen' =&gt; 'RING PLAT WP 8','KODE KIT' =&gt; 'A03','KIT' =&gt; 'KIT STALL 3 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="1">
-        <v>2.0</v>
+      <c r="C36" s="10">
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>113</v>
@@ -2314,16 +3599,51 @@
       <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="H36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1035',</v>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PIPA PENGUAT PBA ',</v>
+      </c>
+      <c r="J36" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L36" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M36" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1035','Nama Komponen' =&gt; 'PIPA PENGUAT PBA ','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="1">
-        <v>1.0</v>
+      <c r="C37" s="10">
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>113</v>
@@ -2337,16 +3657,51 @@
       <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="H37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1036',</v>
+      </c>
+      <c r="I37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PANEL PBA ASSY',</v>
+      </c>
+      <c r="J37" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M37" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1036','Nama Komponen' =&gt; 'PANEL PBA ASSY','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="1">
-        <v>21.0</v>
+      <c r="C38" s="10">
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>113</v>
@@ -2360,16 +3715,51 @@
       <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="H38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1037',</v>
+      </c>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PENGUAT CAGAK I',</v>
+      </c>
+      <c r="J38" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M38" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1037','Nama Komponen' =&gt; 'PENGUAT CAGAK I','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="1">
-        <v>2.0</v>
+      <c r="C39" s="10">
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>113</v>
@@ -2383,16 +3773,51 @@
       <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="H39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1038',</v>
+      </c>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PILLAR I (ELF)',</v>
+      </c>
+      <c r="J39" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M39" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1038','Nama Komponen' =&gt; 'INNER PILLAR I (ELF)','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="1">
-        <v>2.0</v>
+      <c r="C40" s="10">
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>113</v>
@@ -2406,16 +3831,51 @@
       <c r="G40" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="H40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1039',</v>
+      </c>
+      <c r="I40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'AIR INTAKE',</v>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L40" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M40" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1039','Nama Komponen' =&gt; 'AIR INTAKE','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="1">
-        <v>2.0</v>
+      <c r="C41" s="10">
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>113</v>
@@ -2429,16 +3889,51 @@
       <c r="G41" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="H41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1040',</v>
+      </c>
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PILAR B RH',</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L41" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M41" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1040','Nama Komponen' =&gt; 'INNER PILAR B RH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="1">
-        <v>2.0</v>
+      <c r="C42" s="10">
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>113</v>
@@ -2452,16 +3947,51 @@
       <c r="G42" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="H42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1041',</v>
+      </c>
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PINTU STECKER LH NEW ELF',</v>
+      </c>
+      <c r="J42" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M42" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1041','Nama Komponen' =&gt; 'INNER PINTU STECKER LH NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="1">
-        <v>22.0</v>
+      <c r="C43" s="10">
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>113</v>
@@ -2475,16 +4005,51 @@
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="H43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1042',</v>
+      </c>
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PINTU SPASI LH NEW ELF',</v>
+      </c>
+      <c r="J43" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K43" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L43" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M43" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1042','Nama Komponen' =&gt; 'INNER PINTU SPASI LH NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="1">
-        <v>2.0</v>
+      <c r="C44" s="10">
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>113</v>
@@ -2498,16 +4063,51 @@
       <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="H44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1043',</v>
+      </c>
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PILAR STECKER BAGIAN ATAS',</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L44" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M44" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1043','Nama Komponen' =&gt; 'INNER PILAR STECKER BAGIAN ATAS','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1">
-        <v>2.0</v>
+      <c r="C45" s="10">
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>113</v>
@@ -2521,16 +4121,51 @@
       <c r="G45" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="H45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1044',</v>
+      </c>
+      <c r="I45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER PILAR SUNDUK BAGIAN ATAS',</v>
+      </c>
+      <c r="J45" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M45" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1044','Nama Komponen' =&gt; 'INNER PILAR SUNDUK BAGIAN ATAS','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="1">
-        <v>2.0</v>
+      <c r="C46" s="10">
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>113</v>
@@ -2544,16 +4179,51 @@
       <c r="G46" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="H46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1045',</v>
+      </c>
+      <c r="I46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PENGUAT PANEL / SENDENGAN FUSO (KECIL)',</v>
+      </c>
+      <c r="J46" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L46" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M46" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1045','Nama Komponen' =&gt; 'PENGUAT PANEL / SENDENGAN FUSO (KECIL)','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="1">
-        <v>2.0</v>
+      <c r="C47" s="10">
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>113</v>
@@ -2567,16 +4237,51 @@
       <c r="G47" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="H47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1046',</v>
+      </c>
+      <c r="I47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF A LH',</v>
+      </c>
+      <c r="J47" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L47" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M47" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1046','Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF A LH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="1">
-        <v>2.0</v>
+      <c r="C48" s="10">
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>113</v>
@@ -2590,16 +4295,51 @@
       <c r="G48" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="H48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1047',</v>
+      </c>
+      <c r="I48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF B LH',</v>
+      </c>
+      <c r="J48" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L48" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M48" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1047','Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF B LH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="1">
-        <v>2.0</v>
+      <c r="C49" s="10">
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>113</v>
@@ -2613,16 +4353,51 @@
       <c r="G49" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="H49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1048',</v>
+      </c>
+      <c r="I49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF A RH',</v>
+      </c>
+      <c r="J49" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1048','Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF A RH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="1">
-        <v>2.0</v>
+      <c r="C50" s="10">
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>113</v>
@@ -2636,16 +4411,51 @@
       <c r="G50" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="H50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1049',</v>
+      </c>
+      <c r="I50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF B RH',</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M50" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1049','Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF B RH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="1">
-        <v>2.0</v>
+      <c r="C51" s="10">
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>113</v>
@@ -2659,16 +4469,51 @@
       <c r="G51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="H51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1050',</v>
+      </c>
+      <c r="I51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'ROOF A (NEW ELF) /MIDDLE ROOF (LONG/SHORT) 1300X3000',</v>
+      </c>
+      <c r="J51" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L51" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M51" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1050','Nama Komponen' =&gt; 'ROOF A (NEW ELF) /MIDDLE ROOF (LONG/SHORT) 1300X3000','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="1">
-        <v>2.0</v>
+      <c r="C52" s="10">
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>113</v>
@@ -2682,16 +4527,51 @@
       <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="H52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1051',</v>
+      </c>
+      <c r="I52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'ROOF B (NEW ELF) /MIDDLE ROOF (LONG) 1300X2700',</v>
+      </c>
+      <c r="J52" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L52" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M52" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1051','Nama Komponen' =&gt; 'ROOF B (NEW ELF) /MIDDLE ROOF (LONG) 1300X2700','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="1">
-        <v>2.0</v>
+      <c r="C53" s="10">
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>113</v>
@@ -2705,16 +4585,51 @@
       <c r="G53" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="H53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1052',</v>
+      </c>
+      <c r="I53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR KAP SHR RH',</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L53" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M53" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1052','Nama Komponen' =&gt; 'CONNECTOR KAP SHR RH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="1">
-        <v>2.0</v>
+      <c r="C54" s="10">
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>113</v>
@@ -2728,16 +4643,51 @@
       <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="H54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1053',</v>
+      </c>
+      <c r="I54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR KAP SHR LH',</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K54" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L54" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M54" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1053','Nama Komponen' =&gt; 'CONNECTOR KAP SHR LH','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="1">
-        <v>1.0</v>
+      <c r="C55" s="10">
+        <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>113</v>
@@ -2751,16 +4701,51 @@
       <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="H55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1054',</v>
+      </c>
+      <c r="I55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'CONNECTOR DEPAN NEW ELF',</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K55" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M55" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1054','Nama Komponen' =&gt; 'CONNECTOR DEPAN NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="1">
-        <v>1.0</v>
+      <c r="C56" s="10">
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>113</v>
@@ -2774,16 +4759,51 @@
       <c r="G56" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="H56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1055',</v>
+      </c>
+      <c r="I56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'TUTUP MESIN ELF',</v>
+      </c>
+      <c r="J56" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M56" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1055','Nama Komponen' =&gt; 'TUTUP MESIN ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="1">
-        <v>1.0</v>
+      <c r="C57" s="10">
+        <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>113</v>
@@ -2797,16 +4817,51 @@
       <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="H57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1056',</v>
+      </c>
+      <c r="I57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER BELAKANG TUTUP MESIN RH NEW ELF',</v>
+      </c>
+      <c r="J57" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M57" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1056','Nama Komponen' =&gt; 'INNER BELAKANG TUTUP MESIN RH NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="1">
-        <v>1.0</v>
+      <c r="C58" s="10">
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>113</v>
@@ -2820,16 +4875,51 @@
       <c r="G58" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="H58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1057',</v>
+      </c>
+      <c r="I58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'INNER RH I',</v>
+      </c>
+      <c r="J58" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L58" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M58" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1057','Nama Komponen' =&gt; 'INNER RH I','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="1">
-        <v>1.0</v>
+      <c r="C59" s="10">
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>113</v>
@@ -2843,16 +4933,51 @@
       <c r="G59" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="H59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1058',</v>
+      </c>
+      <c r="I59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'SAMBUNGAN KNALPOT',</v>
+      </c>
+      <c r="J59" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L59" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M59" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1058','Nama Komponen' =&gt; 'SAMBUNGAN KNALPOT','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="1">
-        <v>1.0</v>
+      <c r="C60" s="10">
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>113</v>
@@ -2866,16 +4991,51 @@
       <c r="G60" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="H60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1059',</v>
+      </c>
+      <c r="I60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'RANGKA AKI',</v>
+      </c>
+      <c r="J60" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L60" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M60" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1059','Nama Komponen' =&gt; 'RANGKA AKI','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="1">
-        <v>1.0</v>
+      <c r="C61" s="10">
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>113</v>
@@ -2889,16 +5049,51 @@
       <c r="G61" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="H61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1060',</v>
+      </c>
+      <c r="I61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PLAT ACCU BAWAH NEW ELF LONG',</v>
+      </c>
+      <c r="J61" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L61" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M61" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1060','Nama Komponen' =&gt; 'PLAT ACCU BAWAH NEW ELF LONG','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="1">
-        <v>1.0</v>
+      <c r="C62" s="10">
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>113</v>
@@ -2912,16 +5107,51 @@
       <c r="G62" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="H62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1061',</v>
+      </c>
+      <c r="I62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PLAT ACCU BELAKANG NEW ELF LONG',</v>
+      </c>
+      <c r="J62" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L62" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M62" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1061','Nama Komponen' =&gt; 'PLAT ACCU BELAKANG NEW ELF LONG','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="1">
-        <v>1.0</v>
+      <c r="C63" s="10">
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>113</v>
@@ -2935,16 +5165,51 @@
       <c r="G63" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="H63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1062',</v>
+      </c>
+      <c r="I63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PLAT ACCU LH NEW ELF LONG',</v>
+      </c>
+      <c r="J63" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L63" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M63" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1062','Nama Komponen' =&gt; 'PLAT ACCU LH NEW ELF LONG','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="1">
-        <v>1.0</v>
+      <c r="C64" s="10">
+        <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>113</v>
@@ -2958,16 +5223,51 @@
       <c r="G64" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="H64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1063',</v>
+      </c>
+      <c r="I64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'PLAT ACCU RH NEW ELF LONG',</v>
+      </c>
+      <c r="J64" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L64" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M64" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1063','Nama Komponen' =&gt; 'PLAT ACCU RH NEW ELF LONG','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="1">
-        <v>1.0</v>
+      <c r="C65" s="10">
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>113</v>
@@ -2981,16 +5281,51 @@
       <c r="G65" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="H65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1064',</v>
+      </c>
+      <c r="I65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'BAUT RUMAH ACCU BH 8X25',</v>
+      </c>
+      <c r="J65" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L65" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M65" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1064','Nama Komponen' =&gt; 'BAUT RUMAH ACCU BH 8X25','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="1">
-        <v>1.0</v>
+      <c r="C66" s="10">
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>113</v>
@@ -3004,16 +5339,51 @@
       <c r="G66" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="H66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1065',</v>
+      </c>
+      <c r="I66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Nama Komponen' =&gt; 'RING PLAT WP 8',</v>
+      </c>
+      <c r="J66" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L66" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M66" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="6"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1065','Nama Komponen' =&gt; 'RING PLAT WP 8','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="1">
-        <v>1.0</v>
+      <c r="C67" s="10">
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>113</v>
@@ -3027,16 +5397,51 @@
       <c r="G67" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="H67" s="9" t="str">
+        <f t="shared" ref="H67:H74" si="7">CONCATENATE($H$1," =&gt; ","'",A67,"'",",")</f>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1066',</v>
+      </c>
+      <c r="I67" s="9" t="str">
+        <f t="shared" ref="I67:I74" si="8">CONCATENATE($I$1," =&gt; ","'",B67,"'",",")</f>
+        <v>'Nama Komponen' =&gt; 'FRAME HOUSING TUTUP BBM LH NEW ELF',</v>
+      </c>
+      <c r="J67" s="9" t="str">
+        <f t="shared" ref="J67:J74" si="9">CONCATENATE($J$1," =&gt; ","'",D67,"'",",")</f>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="shared" ref="K67:K74" si="10">CONCATENATE($K$1," =&gt; ","'",E67,"'",",")</f>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L67" s="9" t="str">
+        <f t="shared" ref="L67:L74" si="11">CONCATENATE($L$1," =&gt; ","'",F67,"'",",")</f>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M67" s="9" t="str">
+        <f t="shared" ref="M67:M74" si="12">CONCATENATE($M$1," =&gt; ","'",G67,"'",",")</f>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P74" si="13">CONCATENATE("[", CHAR(10),H67,I67,J67,K67,L67,M67,N67,O67,"],")</f>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1066','Nama Komponen' =&gt; 'FRAME HOUSING TUTUP BBM LH NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="1">
-        <v>11.0</v>
+      <c r="C68" s="10">
+        <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>113</v>
@@ -3050,16 +5455,51 @@
       <c r="G68" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="H68" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1067',</v>
+      </c>
+      <c r="I68" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'FRAME HOUSING TUTUP BBM RH NEW ELF',</v>
+      </c>
+      <c r="J68" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L68" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M68" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1067','Nama Komponen' =&gt; 'FRAME HOUSING TUTUP BBM RH NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C69" s="1">
-        <v>1.0</v>
+      <c r="C69" s="10">
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>113</v>
@@ -3073,16 +5513,51 @@
       <c r="G69" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="H69" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1068',</v>
+      </c>
+      <c r="I69" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'PIPA PENYANGGA BELAKANG',</v>
+      </c>
+      <c r="J69" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L69" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M69" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1068','Nama Komponen' =&gt; 'PIPA PENYANGGA BELAKANG','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="1">
-        <v>1.0</v>
+      <c r="C70" s="10">
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>113</v>
@@ -3096,16 +5571,51 @@
       <c r="G70" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="H70" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1069',</v>
+      </c>
+      <c r="I70" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'SIKU PENGUAT PADA RUMAH ENGSEL PBA',</v>
+      </c>
+      <c r="J70" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K70" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L70" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M70" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1069','Nama Komponen' =&gt; 'SIKU PENGUAT PADA RUMAH ENGSEL PBA','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C71" s="1">
-        <v>1.0</v>
+      <c r="C71" s="10">
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>113</v>
@@ -3119,16 +5629,51 @@
       <c r="G71" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="H71" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1070',</v>
+      </c>
+      <c r="I71" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'INNER PILLAR BELAKANG PBA LH FUSO',</v>
+      </c>
+      <c r="J71" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K71" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L71" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M71" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1070','Nama Komponen' =&gt; 'INNER PILLAR BELAKANG PBA LH FUSO','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="1">
-        <v>1.0</v>
+      <c r="C72" s="10">
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>113</v>
@@ -3142,16 +5687,51 @@
       <c r="G72" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="H72" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1071',</v>
+      </c>
+      <c r="I72" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'INNER PILLAR BELAKANG PBA RH FUSO',</v>
+      </c>
+      <c r="J72" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K72" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L72" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M72" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1071','Nama Komponen' =&gt; 'INNER PILLAR BELAKANG PBA RH FUSO','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="1">
-        <v>1.0</v>
+      <c r="C73" s="10">
+        <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>113</v>
@@ -3165,16 +5745,51 @@
       <c r="G73" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="H73" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMRL1072',</v>
+      </c>
+      <c r="I73" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'TUTUP ENGSEL PBA NEW ELF',</v>
+      </c>
+      <c r="J73" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; 'A04',</v>
+      </c>
+      <c r="K73" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
+      </c>
+      <c r="L73" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M73" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMRL1072','Nama Komponen' =&gt; 'TUTUP ENGSEL PBA NEW ELF','KODE KIT' =&gt; 'A04','KIT' =&gt; 'KIT STALL 4 BODY WELDING','KODE MOBIL' =&gt; 'EL','PARAMETER 1' =&gt; '5 PINTU PISAH','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="1">
-        <v>1.0</v>
+      <c r="C74" s="10">
+        <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>189</v>
@@ -3182,8 +5797,43 @@
       <c r="G74" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="H74" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>'Kode Komponen' =&gt; 'J02SMPRL2001',</v>
+      </c>
+      <c r="I74" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>'Nama Komponen' =&gt; 'TUTUP TRAP',</v>
+      </c>
+      <c r="J74" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>'KODE KIT' =&gt; '',</v>
+      </c>
+      <c r="K74" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>'KIT' =&gt; '',</v>
+      </c>
+      <c r="L74" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>'KODE MOBIL' =&gt; 'EL ',</v>
+      </c>
+      <c r="M74" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>'PARAMETER 1' =&gt; 'PASANG TUTUP TRAP',</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="13"/>
+        <v>[
+'Kode Komponen' =&gt; 'J02SMPRL2001','Nama Komponen' =&gt; 'TUTUP TRAP','KODE KIT' =&gt; '','KIT' =&gt; '','KODE MOBIL' =&gt; 'EL ','PARAMETER 1' =&gt; 'PASANG TUTUP TRAP','created_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),'updated_at' =&gt; Carbon::now()-&gt;format('Y-m-d H:i:s'),],</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/File dari Pak Eflan/PERCOBAAN PROGRAM PPIC.xlsx
+++ b/File dari Pak Eflan/PERCOBAAN PROGRAM PPIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Project Magang\ProjectMagang\File dari Pak Eflan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050BBDC6-C01B-40A9-BB9C-A9478FDC0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9908F49-5807-4F7C-BEE5-15922EE8BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" HASIL KESELURUHAN" sheetId="1" r:id="rId1"/>
@@ -671,15 +671,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1299,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1376,13 +1376,13 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1532,17 +1532,17 @@
   </sheetPr>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="8" customWidth="1"/>
     <col min="4" max="5" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1561,7 +1561,7 @@
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1608,7 +1608,7 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1623,34 +1623,34 @@
       <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="9" t="str">
+      <c r="H2" s="6" t="str">
         <f>CONCATENATE($H$1," =&gt; ","'",A2,"'",",")</f>
         <v>'Kode Komponen' =&gt; 'J02SMRL1001',</v>
       </c>
-      <c r="I2" s="9" t="str">
+      <c r="I2" s="6" t="str">
         <f>CONCATENATE($I$1," =&gt; ","'",B2,"'",",")</f>
         <v>'Nama Komponen' =&gt; 'RANGKA LANTAI',</v>
       </c>
-      <c r="J2" s="9" t="str">
+      <c r="J2" s="6" t="str">
         <f>CONCATENATE($J$1," =&gt; ","'",D2,"'",",")</f>
         <v>'KODE KIT' =&gt; 'A01',</v>
       </c>
-      <c r="K2" s="9" t="str">
+      <c r="K2" s="6" t="str">
         <f>CONCATENATE($K$1," =&gt; ","'",E2,"'",",")</f>
         <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
       </c>
-      <c r="L2" s="9" t="str">
+      <c r="L2" s="6" t="str">
         <f>CONCATENATE($L$1," =&gt; ","'",F2,"'",",")</f>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M2" s="9" t="str">
+      <c r="M2" s="6" t="str">
         <f>CONCATENATE($M$1," =&gt; ","'",G2,"'",",")</f>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH,4 PINTU PISAH',</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P2" t="str">
@@ -1670,7 +1670,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1685,34 +1685,34 @@
       <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="6" t="str">
         <f t="shared" ref="H3:H66" si="0">CONCATENATE($H$1," =&gt; ","'",A3,"'",",")</f>
         <v>'Kode Komponen' =&gt; 'J02SMRL1002',</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I66" si="1">CONCATENATE($I$1," =&gt; ","'",B3,"'",",")</f>
         <v>'Nama Komponen' =&gt; 'PLAT LANTAI ',</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="6" t="str">
         <f t="shared" ref="J3:J66" si="2">CONCATENATE($J$1," =&gt; ","'",D3,"'",",")</f>
         <v>'KODE KIT' =&gt; 'A01',</v>
       </c>
-      <c r="K3" s="9" t="str">
+      <c r="K3" s="6" t="str">
         <f t="shared" ref="K3:K66" si="3">CONCATENATE($K$1," =&gt; ","'",E3,"'",",")</f>
         <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
       </c>
-      <c r="L3" s="9" t="str">
+      <c r="L3" s="6" t="str">
         <f t="shared" ref="L3:L66" si="4">CONCATENATE($L$1," =&gt; ","'",F3,"'",",")</f>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="M3" s="6" t="str">
         <f t="shared" ref="M3:M66" si="5">CONCATENATE($M$1," =&gt; ","'",G3,"'",",")</f>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH ',</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P3" t="str">
@@ -1728,7 +1728,7 @@
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1743,34 +1743,34 @@
       <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1003',</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PIPA SLANGER',</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A01',</v>
       </c>
-      <c r="K4" s="9" t="str">
+      <c r="K4" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
       </c>
-      <c r="L4" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M4" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="L4" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P4" t="str">
@@ -1786,7 +1786,7 @@
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1801,34 +1801,34 @@
       <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1004',</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PLAT HITAM 2 X 75 X 60',</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A01',</v>
       </c>
-      <c r="K5" s="9" t="str">
+      <c r="K5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
       </c>
-      <c r="L5" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M5" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="L5" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P5" t="str">
@@ -1844,7 +1844,7 @@
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1859,34 +1859,34 @@
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1005',</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PLAT BIBIRAN LANTAI ',</v>
       </c>
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A01',</v>
       </c>
-      <c r="K6" s="9" t="str">
+      <c r="K6" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 1 BODY WELDING',</v>
       </c>
-      <c r="L6" s="9" t="str">
+      <c r="L6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>'KODE MOBIL' =&gt; 'EL,FEL',</v>
       </c>
-      <c r="M6" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="M6" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P6" t="str">
@@ -1902,7 +1902,7 @@
       <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1917,34 +1917,34 @@
       <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="9" t="str">
+      <c r="H7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1006',</v>
       </c>
-      <c r="I7" s="9" t="str">
+      <c r="I7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'BRACKET BUMPER DEPAN NEW ELF',</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K7" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L7" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M7" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7" s="8" t="s">
+      <c r="L7" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P7" t="str">
@@ -1960,7 +1960,7 @@
       <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1975,34 +1975,34 @@
       <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1007',</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PANEL RH ASSY',</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K8" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L8" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M8" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O8" s="8" t="s">
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P8" t="str">
@@ -2018,7 +2018,7 @@
       <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2033,34 +2033,34 @@
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1008',</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PENAHAN LUMPUR LH NEW ELF',</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K9" s="9" t="str">
+      <c r="K9" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L9" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M9" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P9" t="str">
@@ -2076,7 +2076,7 @@
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2091,34 +2091,34 @@
       <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="9" t="str">
+      <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1009',</v>
       </c>
-      <c r="I10" s="9" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PENAHAN LUMPUR RH NEW ELF',</v>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K10" s="9" t="str">
+      <c r="K10" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L10" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O10" s="8" t="s">
+      <c r="L10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P10" t="str">
@@ -2134,7 +2134,7 @@
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2149,34 +2149,34 @@
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1010',</v>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PIPA KOTAK',</v>
       </c>
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K11" s="9" t="str">
+      <c r="K11" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L11" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M11" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P11" t="str">
@@ -2192,7 +2192,7 @@
       <c r="B12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2207,34 +2207,34 @@
       <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1011',</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="I12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PANEL TENGAH',</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K12" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L12" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M12" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O12" s="8" t="s">
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M12" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P12" t="str">
@@ -2250,7 +2250,7 @@
       <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2265,34 +2265,34 @@
       <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="9" t="str">
+      <c r="H13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1012',</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PINTU PENUMPANG KE-1 ',</v>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K13" s="9" t="str">
+      <c r="K13" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L13" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M13" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O13" s="8" t="s">
+      <c r="L13" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P13" t="str">
@@ -2308,7 +2308,7 @@
       <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2323,34 +2323,34 @@
       <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="9" t="str">
+      <c r="H14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1013',</v>
       </c>
-      <c r="I14" s="9" t="str">
+      <c r="I14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PINTU PENUMPANG KE-2',</v>
       </c>
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K14" s="9" t="str">
+      <c r="K14" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L14" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M14" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O14" s="8" t="s">
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M14" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P14" t="str">
@@ -2366,7 +2366,7 @@
       <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2381,34 +2381,34 @@
       <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="H15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1014',</v>
       </c>
-      <c r="I15" s="9" t="str">
+      <c r="I15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PINTU BBM',</v>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K15" s="9" t="str">
+      <c r="K15" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L15" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M15" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="8" t="s">
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M15" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P15" t="str">
@@ -2424,7 +2424,7 @@
       <c r="B16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2439,34 +2439,34 @@
       <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="H16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1015',</v>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="I16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'RUMAH ENGSEL TUTUP BBM',</v>
       </c>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A02',</v>
       </c>
-      <c r="K16" s="9" t="str">
+      <c r="K16" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 2 BODY WELDING',</v>
       </c>
-      <c r="L16" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M16" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O16" s="8" t="s">
+      <c r="L16" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P16" t="str">
@@ -2482,7 +2482,7 @@
       <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2497,34 +2497,34 @@
       <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="H17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1016',</v>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP',</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K17" s="9" t="str">
+      <c r="K17" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L17" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M17" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O17" s="8" t="s">
+      <c r="L17" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P17" t="str">
@@ -2540,7 +2540,7 @@
       <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2555,34 +2555,34 @@
       <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="H18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1017',</v>
       </c>
-      <c r="I18" s="9" t="str">
+      <c r="I18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP ELF DEPAN',</v>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K18" s="9" t="str">
+      <c r="K18" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L18" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M18" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O18" s="8" t="s">
+      <c r="L18" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P18" t="str">
@@ -2598,7 +2598,7 @@
       <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2613,34 +2613,34 @@
       <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1018',</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP ELF BELAKANG',</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="K19" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L19" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M19" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O19" s="8" t="s">
+      <c r="L19" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P19" t="str">
@@ -2656,7 +2656,7 @@
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2671,34 +2671,34 @@
       <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="9" t="str">
+      <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1019',</v>
       </c>
-      <c r="I20" s="9" t="str">
+      <c r="I20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP',</v>
       </c>
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K20" s="9" t="str">
+      <c r="K20" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L20" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M20" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O20" s="8" t="s">
+      <c r="L20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M20" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P20" t="str">
@@ -2714,7 +2714,7 @@
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2729,34 +2729,34 @@
       <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="9" t="str">
+      <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1020',</v>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP ELF DEPAN',</v>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L21" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M21" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O21" s="8" t="s">
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M21" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P21" t="str">
@@ -2772,7 +2772,7 @@
       <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2787,34 +2787,34 @@
       <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="9" t="str">
+      <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1021',</v>
       </c>
-      <c r="I22" s="9" t="str">
+      <c r="I22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP ELF BELAKANG',</v>
       </c>
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K22" s="9" t="str">
+      <c r="K22" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L22" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M22" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O22" s="8" t="s">
+      <c r="L22" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M22" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P22" t="str">
@@ -2830,7 +2830,7 @@
       <c r="B23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2845,34 +2845,34 @@
       <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1022',</v>
       </c>
-      <c r="I23" s="9" t="str">
+      <c r="I23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP DEPAN (1 STEP)',</v>
       </c>
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K23" s="9" t="str">
+      <c r="K23" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L23" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M23" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O23" s="8" t="s">
+      <c r="L23" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M23" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P23" t="str">
@@ -2888,7 +2888,7 @@
       <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2903,34 +2903,34 @@
       <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="9" t="str">
+      <c r="H24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1023',</v>
       </c>
-      <c r="I24" s="9" t="str">
+      <c r="I24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TRAP BELAKANG (1 STEP)',</v>
       </c>
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K24" s="9" t="str">
+      <c r="K24" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L24" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M24" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O24" s="8" t="s">
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M24" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P24" t="str">
@@ -2946,7 +2946,7 @@
       <c r="B25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2961,34 +2961,34 @@
       <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="9" t="str">
+      <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1024',</v>
       </c>
-      <c r="I25" s="9" t="str">
+      <c r="I25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF PANJANG (KHUSUS 5P)',</v>
       </c>
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K25" s="9" t="str">
+      <c r="K25" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L25" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M25" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O25" s="8" t="s">
+      <c r="L25" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P25" t="str">
@@ -3004,7 +3004,7 @@
       <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3019,34 +3019,34 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1025',</v>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="I26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF SEDANG (KHUSUS 5P)',</v>
       </c>
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K26" s="9" t="str">
+      <c r="K26" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L26" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M26" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" s="8" t="s">
+      <c r="L26" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M26" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P26" t="str">
@@ -3062,7 +3062,7 @@
       <c r="B27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3077,34 +3077,34 @@
       <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1026',</v>
       </c>
-      <c r="I27" s="9" t="str">
+      <c r="I27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CAGAK PANEL NEW ELF PENDEK (KHUSUS 5P)',</v>
       </c>
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K27" s="9" t="str">
+      <c r="K27" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L27" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M27" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O27" s="8" t="s">
+      <c r="L27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M27" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P27" t="str">
@@ -3120,7 +3120,7 @@
       <c r="B28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3135,34 +3135,34 @@
       <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="9" t="str">
+      <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1027',</v>
       </c>
-      <c r="I28" s="9" t="str">
+      <c r="I28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'BAGASI TOOLKIT',</v>
       </c>
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K28" s="9" t="str">
+      <c r="K28" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L28" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M28" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O28" s="8" t="s">
+      <c r="L28" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P28" t="str">
@@ -3178,7 +3178,7 @@
       <c r="B29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3193,34 +3193,34 @@
       <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="9" t="str">
+      <c r="H29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1028',</v>
       </c>
-      <c r="I29" s="9" t="str">
+      <c r="I29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'RUMAH ENGSEL TUTUP BBM',</v>
       </c>
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K29" s="9" t="str">
+      <c r="K29" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L29" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M29" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O29" s="8" t="s">
+      <c r="L29" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M29" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P29" t="str">
@@ -3236,7 +3236,7 @@
       <c r="B30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3251,34 +3251,34 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="9" t="str">
+      <c r="H30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1029',</v>
       </c>
-      <c r="I30" s="9" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'SEAT REAR BUMPER / SUPPORT BUMPER (NEW ELF) RH',</v>
       </c>
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K30" s="9" t="str">
+      <c r="K30" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L30" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M30" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O30" s="8" t="s">
+      <c r="L30" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M30" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P30" t="str">
@@ -3294,7 +3294,7 @@
       <c r="B31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3309,34 +3309,34 @@
       <c r="G31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="9" t="str">
+      <c r="H31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1030',</v>
       </c>
-      <c r="I31" s="9" t="str">
+      <c r="I31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'SEAT REAR BUMPER / SUPPORT BUMPER (NEW ELF) LH',</v>
       </c>
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K31" s="9" t="str">
+      <c r="K31" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L31" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M31" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="8" t="s">
+      <c r="L31" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M31" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P31" t="str">
@@ -3352,7 +3352,7 @@
       <c r="B32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3367,34 +3367,34 @@
       <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="9" t="str">
+      <c r="H32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1031',</v>
       </c>
-      <c r="I32" s="9" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'SEAT BUMPER BELAKANG',</v>
       </c>
-      <c r="J32" s="9" t="str">
+      <c r="J32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K32" s="9" t="str">
+      <c r="K32" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L32" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M32" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O32" s="8" t="s">
+      <c r="L32" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M32" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P32" t="str">
@@ -3410,7 +3410,7 @@
       <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3425,34 +3425,34 @@
       <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="9" t="str">
+      <c r="H33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1032',</v>
       </c>
-      <c r="I33" s="9" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'BRACKET BUMPER BELAKANG',</v>
       </c>
-      <c r="J33" s="9" t="str">
+      <c r="J33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K33" s="9" t="str">
+      <c r="K33" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L33" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M33" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O33" s="8" t="s">
+      <c r="L33" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M33" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P33" t="str">
@@ -3468,7 +3468,7 @@
       <c r="B34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3483,34 +3483,34 @@
       <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="9" t="str">
+      <c r="H34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1033',</v>
       </c>
-      <c r="I34" s="9" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'BAUT BH 8X25',</v>
       </c>
-      <c r="J34" s="9" t="str">
+      <c r="J34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K34" s="9" t="str">
+      <c r="K34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L34" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M34" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O34" s="8" t="s">
+      <c r="L34" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M34" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P34" t="str">
@@ -3526,7 +3526,7 @@
       <c r="B35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3541,34 +3541,34 @@
       <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="9" t="str">
+      <c r="H35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1034',</v>
       </c>
-      <c r="I35" s="9" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'RING PLAT WP 8',</v>
       </c>
-      <c r="J35" s="9" t="str">
+      <c r="J35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A03',</v>
       </c>
-      <c r="K35" s="9" t="str">
+      <c r="K35" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 3 BODY WELDING',</v>
       </c>
-      <c r="L35" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M35" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O35" s="8" t="s">
+      <c r="L35" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M35" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P35" t="str">
@@ -3584,7 +3584,7 @@
       <c r="B36" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3599,34 +3599,34 @@
       <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="9" t="str">
+      <c r="H36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1035',</v>
       </c>
-      <c r="I36" s="9" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PIPA PENGUAT PBA ',</v>
       </c>
-      <c r="J36" s="9" t="str">
+      <c r="J36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K36" s="9" t="str">
+      <c r="K36" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L36" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O36" s="8" t="s">
+      <c r="L36" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M36" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P36" t="str">
@@ -3642,7 +3642,7 @@
       <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3657,34 +3657,34 @@
       <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="9" t="str">
+      <c r="H37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1036',</v>
       </c>
-      <c r="I37" s="9" t="str">
+      <c r="I37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PANEL PBA ASSY',</v>
       </c>
-      <c r="J37" s="9" t="str">
+      <c r="J37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K37" s="9" t="str">
+      <c r="K37" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L37" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M37" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O37" s="8" t="s">
+      <c r="L37" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M37" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O37" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P37" t="str">
@@ -3700,7 +3700,7 @@
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3715,34 +3715,34 @@
       <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="9" t="str">
+      <c r="H38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1037',</v>
       </c>
-      <c r="I38" s="9" t="str">
+      <c r="I38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PENGUAT CAGAK I',</v>
       </c>
-      <c r="J38" s="9" t="str">
+      <c r="J38" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K38" s="9" t="str">
+      <c r="K38" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L38" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M38" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O38" s="8" t="s">
+      <c r="L38" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M38" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P38" t="str">
@@ -3758,7 +3758,7 @@
       <c r="B39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3773,34 +3773,34 @@
       <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="9" t="str">
+      <c r="H39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1038',</v>
       </c>
-      <c r="I39" s="9" t="str">
+      <c r="I39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PILLAR I (ELF)',</v>
       </c>
-      <c r="J39" s="9" t="str">
+      <c r="J39" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K39" s="9" t="str">
+      <c r="K39" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L39" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M39" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O39" s="8" t="s">
+      <c r="L39" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M39" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P39" t="str">
@@ -3816,7 +3816,7 @@
       <c r="B40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3831,34 +3831,34 @@
       <c r="G40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="9" t="str">
+      <c r="H40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1039',</v>
       </c>
-      <c r="I40" s="9" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'AIR INTAKE',</v>
       </c>
-      <c r="J40" s="9" t="str">
+      <c r="J40" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K40" s="9" t="str">
+      <c r="K40" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L40" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M40" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O40" s="8" t="s">
+      <c r="L40" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M40" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P40" t="str">
@@ -3874,7 +3874,7 @@
       <c r="B41" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3889,34 +3889,34 @@
       <c r="G41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="9" t="str">
+      <c r="H41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1040',</v>
       </c>
-      <c r="I41" s="9" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PILAR B RH',</v>
       </c>
-      <c r="J41" s="9" t="str">
+      <c r="J41" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K41" s="9" t="str">
+      <c r="K41" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L41" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M41" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O41" s="8" t="s">
+      <c r="L41" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M41" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O41" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P41" t="str">
@@ -3932,7 +3932,7 @@
       <c r="B42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3947,34 +3947,34 @@
       <c r="G42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="9" t="str">
+      <c r="H42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1041',</v>
       </c>
-      <c r="I42" s="9" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PINTU STECKER LH NEW ELF',</v>
       </c>
-      <c r="J42" s="9" t="str">
+      <c r="J42" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K42" s="9" t="str">
+      <c r="K42" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L42" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M42" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O42" s="8" t="s">
+      <c r="L42" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M42" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P42" t="str">
@@ -3990,7 +3990,7 @@
       <c r="B43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4005,34 +4005,34 @@
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="9" t="str">
+      <c r="H43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1042',</v>
       </c>
-      <c r="I43" s="9" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PINTU SPASI LH NEW ELF',</v>
       </c>
-      <c r="J43" s="9" t="str">
+      <c r="J43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K43" s="9" t="str">
+      <c r="K43" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L43" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M43" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O43" s="8" t="s">
+      <c r="L43" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M43" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P43" t="str">
@@ -4048,7 +4048,7 @@
       <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4063,34 +4063,34 @@
       <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="9" t="str">
+      <c r="H44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1043',</v>
       </c>
-      <c r="I44" s="9" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PILAR STECKER BAGIAN ATAS',</v>
       </c>
-      <c r="J44" s="9" t="str">
+      <c r="J44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K44" s="9" t="str">
+      <c r="K44" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L44" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M44" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O44" s="8" t="s">
+      <c r="L44" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M44" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P44" t="str">
@@ -4106,7 +4106,7 @@
       <c r="B45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4121,34 +4121,34 @@
       <c r="G45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="9" t="str">
+      <c r="H45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1044',</v>
       </c>
-      <c r="I45" s="9" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER PILAR SUNDUK BAGIAN ATAS',</v>
       </c>
-      <c r="J45" s="9" t="str">
+      <c r="J45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K45" s="9" t="str">
+      <c r="K45" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L45" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M45" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O45" s="8" t="s">
+      <c r="L45" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M45" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P45" t="str">
@@ -4164,7 +4164,7 @@
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4179,34 +4179,34 @@
       <c r="G46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="9" t="str">
+      <c r="H46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1045',</v>
       </c>
-      <c r="I46" s="9" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PENGUAT PANEL / SENDENGAN FUSO (KECIL)',</v>
       </c>
-      <c r="J46" s="9" t="str">
+      <c r="J46" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K46" s="9" t="str">
+      <c r="K46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L46" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M46" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O46" s="8" t="s">
+      <c r="L46" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M46" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O46" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P46" t="str">
@@ -4222,7 +4222,7 @@
       <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -4237,34 +4237,34 @@
       <c r="G47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="9" t="str">
+      <c r="H47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1046',</v>
       </c>
-      <c r="I47" s="9" t="str">
+      <c r="I47" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF A LH',</v>
       </c>
-      <c r="J47" s="9" t="str">
+      <c r="J47" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K47" s="9" t="str">
+      <c r="K47" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L47" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M47" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O47" s="8" t="s">
+      <c r="L47" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M47" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O47" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P47" t="str">
@@ -4280,7 +4280,7 @@
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4295,34 +4295,34 @@
       <c r="G48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="9" t="str">
+      <c r="H48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1047',</v>
       </c>
-      <c r="I48" s="9" t="str">
+      <c r="I48" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF B LH',</v>
       </c>
-      <c r="J48" s="9" t="str">
+      <c r="J48" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K48" s="9" t="str">
+      <c r="K48" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L48" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M48" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O48" s="8" t="s">
+      <c r="L48" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M48" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O48" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P48" t="str">
@@ -4338,7 +4338,7 @@
       <c r="B49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -4353,34 +4353,34 @@
       <c r="G49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="9" t="str">
+      <c r="H49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1048',</v>
       </c>
-      <c r="I49" s="9" t="str">
+      <c r="I49" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF A RH',</v>
       </c>
-      <c r="J49" s="9" t="str">
+      <c r="J49" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K49" s="9" t="str">
+      <c r="K49" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L49" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M49" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O49" s="8" t="s">
+      <c r="L49" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M49" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O49" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P49" t="str">
@@ -4396,7 +4396,7 @@
       <c r="B50" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4411,34 +4411,34 @@
       <c r="G50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="9" t="str">
+      <c r="H50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1049',</v>
       </c>
-      <c r="I50" s="9" t="str">
+      <c r="I50" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR SAMPING ROOF B RH',</v>
       </c>
-      <c r="J50" s="9" t="str">
+      <c r="J50" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K50" s="9" t="str">
+      <c r="K50" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L50" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M50" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O50" s="8" t="s">
+      <c r="L50" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M50" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O50" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P50" t="str">
@@ -4454,7 +4454,7 @@
       <c r="B51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4469,34 +4469,34 @@
       <c r="G51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H51" s="9" t="str">
+      <c r="H51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1050',</v>
       </c>
-      <c r="I51" s="9" t="str">
+      <c r="I51" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'ROOF A (NEW ELF) /MIDDLE ROOF (LONG/SHORT) 1300X3000',</v>
       </c>
-      <c r="J51" s="9" t="str">
+      <c r="J51" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K51" s="9" t="str">
+      <c r="K51" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L51" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M51" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O51" s="8" t="s">
+      <c r="L51" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M51" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O51" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P51" t="str">
@@ -4512,7 +4512,7 @@
       <c r="B52" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4527,34 +4527,34 @@
       <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="9" t="str">
+      <c r="H52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1051',</v>
       </c>
-      <c r="I52" s="9" t="str">
+      <c r="I52" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'ROOF B (NEW ELF) /MIDDLE ROOF (LONG) 1300X2700',</v>
       </c>
-      <c r="J52" s="9" t="str">
+      <c r="J52" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K52" s="9" t="str">
+      <c r="K52" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L52" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M52" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O52" s="8" t="s">
+      <c r="L52" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M52" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O52" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P52" t="str">
@@ -4570,7 +4570,7 @@
       <c r="B53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4585,34 +4585,34 @@
       <c r="G53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="9" t="str">
+      <c r="H53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1052',</v>
       </c>
-      <c r="I53" s="9" t="str">
+      <c r="I53" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR KAP SHR RH',</v>
       </c>
-      <c r="J53" s="9" t="str">
+      <c r="J53" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K53" s="9" t="str">
+      <c r="K53" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L53" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M53" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O53" s="8" t="s">
+      <c r="L53" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M53" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P53" t="str">
@@ -4628,7 +4628,7 @@
       <c r="B54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4643,34 +4643,34 @@
       <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="9" t="str">
+      <c r="H54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1053',</v>
       </c>
-      <c r="I54" s="9" t="str">
+      <c r="I54" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR KAP SHR LH',</v>
       </c>
-      <c r="J54" s="9" t="str">
+      <c r="J54" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K54" s="9" t="str">
+      <c r="K54" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L54" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M54" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O54" s="8" t="s">
+      <c r="L54" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M54" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O54" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P54" t="str">
@@ -4686,7 +4686,7 @@
       <c r="B55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4701,34 +4701,34 @@
       <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="9" t="str">
+      <c r="H55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1054',</v>
       </c>
-      <c r="I55" s="9" t="str">
+      <c r="I55" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'CONNECTOR DEPAN NEW ELF',</v>
       </c>
-      <c r="J55" s="9" t="str">
+      <c r="J55" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K55" s="9" t="str">
+      <c r="K55" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L55" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M55" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O55" s="8" t="s">
+      <c r="L55" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M55" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P55" t="str">
@@ -4744,7 +4744,7 @@
       <c r="B56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="7">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4759,34 +4759,34 @@
       <c r="G56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H56" s="9" t="str">
+      <c r="H56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1055',</v>
       </c>
-      <c r="I56" s="9" t="str">
+      <c r="I56" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'TUTUP MESIN ELF',</v>
       </c>
-      <c r="J56" s="9" t="str">
+      <c r="J56" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K56" s="9" t="str">
+      <c r="K56" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L56" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M56" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O56" s="8" t="s">
+      <c r="L56" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M56" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O56" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P56" t="str">
@@ -4802,7 +4802,7 @@
       <c r="B57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4817,34 +4817,34 @@
       <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="9" t="str">
+      <c r="H57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1056',</v>
       </c>
-      <c r="I57" s="9" t="str">
+      <c r="I57" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER BELAKANG TUTUP MESIN RH NEW ELF',</v>
       </c>
-      <c r="J57" s="9" t="str">
+      <c r="J57" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K57" s="9" t="str">
+      <c r="K57" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L57" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M57" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O57" s="8" t="s">
+      <c r="L57" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M57" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O57" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P57" t="str">
@@ -4860,7 +4860,7 @@
       <c r="B58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4875,34 +4875,34 @@
       <c r="G58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="9" t="str">
+      <c r="H58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1057',</v>
       </c>
-      <c r="I58" s="9" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'INNER RH I',</v>
       </c>
-      <c r="J58" s="9" t="str">
+      <c r="J58" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K58" s="9" t="str">
+      <c r="K58" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L58" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M58" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O58" s="8" t="s">
+      <c r="L58" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M58" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O58" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P58" t="str">
@@ -4918,7 +4918,7 @@
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4933,34 +4933,34 @@
       <c r="G59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="9" t="str">
+      <c r="H59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1058',</v>
       </c>
-      <c r="I59" s="9" t="str">
+      <c r="I59" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'SAMBUNGAN KNALPOT',</v>
       </c>
-      <c r="J59" s="9" t="str">
+      <c r="J59" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K59" s="9" t="str">
+      <c r="K59" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L59" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M59" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O59" s="8" t="s">
+      <c r="L59" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M59" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O59" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P59" t="str">
@@ -4976,7 +4976,7 @@
       <c r="B60" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4991,34 +4991,34 @@
       <c r="G60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="9" t="str">
+      <c r="H60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1059',</v>
       </c>
-      <c r="I60" s="9" t="str">
+      <c r="I60" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'RANGKA AKI',</v>
       </c>
-      <c r="J60" s="9" t="str">
+      <c r="J60" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K60" s="9" t="str">
+      <c r="K60" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L60" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M60" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O60" s="8" t="s">
+      <c r="L60" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M60" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O60" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P60" t="str">
@@ -5034,7 +5034,7 @@
       <c r="B61" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -5049,34 +5049,34 @@
       <c r="G61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="9" t="str">
+      <c r="H61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1060',</v>
       </c>
-      <c r="I61" s="9" t="str">
+      <c r="I61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PLAT ACCU BAWAH NEW ELF LONG',</v>
       </c>
-      <c r="J61" s="9" t="str">
+      <c r="J61" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K61" s="9" t="str">
+      <c r="K61" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L61" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M61" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O61" s="8" t="s">
+      <c r="L61" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M61" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O61" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P61" t="str">
@@ -5092,7 +5092,7 @@
       <c r="B62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -5107,34 +5107,34 @@
       <c r="G62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="9" t="str">
+      <c r="H62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1061',</v>
       </c>
-      <c r="I62" s="9" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PLAT ACCU BELAKANG NEW ELF LONG',</v>
       </c>
-      <c r="J62" s="9" t="str">
+      <c r="J62" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K62" s="9" t="str">
+      <c r="K62" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L62" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M62" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O62" s="8" t="s">
+      <c r="L62" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M62" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O62" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P62" t="str">
@@ -5150,7 +5150,7 @@
       <c r="B63" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -5165,34 +5165,34 @@
       <c r="G63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H63" s="9" t="str">
+      <c r="H63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1062',</v>
       </c>
-      <c r="I63" s="9" t="str">
+      <c r="I63" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PLAT ACCU LH NEW ELF LONG',</v>
       </c>
-      <c r="J63" s="9" t="str">
+      <c r="J63" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K63" s="9" t="str">
+      <c r="K63" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L63" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M63" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O63" s="8" t="s">
+      <c r="L63" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M63" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O63" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P63" t="str">
@@ -5208,7 +5208,7 @@
       <c r="B64" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -5223,34 +5223,34 @@
       <c r="G64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H64" s="9" t="str">
+      <c r="H64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1063',</v>
       </c>
-      <c r="I64" s="9" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'PLAT ACCU RH NEW ELF LONG',</v>
       </c>
-      <c r="J64" s="9" t="str">
+      <c r="J64" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K64" s="9" t="str">
+      <c r="K64" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L64" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M64" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O64" s="8" t="s">
+      <c r="L64" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M64" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O64" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P64" t="str">
@@ -5266,7 +5266,7 @@
       <c r="B65" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -5281,34 +5281,34 @@
       <c r="G65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H65" s="9" t="str">
+      <c r="H65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1064',</v>
       </c>
-      <c r="I65" s="9" t="str">
+      <c r="I65" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'BAUT RUMAH ACCU BH 8X25',</v>
       </c>
-      <c r="J65" s="9" t="str">
+      <c r="J65" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K65" s="9" t="str">
+      <c r="K65" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L65" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M65" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O65" s="8" t="s">
+      <c r="L65" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M65" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O65" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P65" t="str">
@@ -5324,7 +5324,7 @@
       <c r="B66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="7">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5339,34 +5339,34 @@
       <c r="G66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H66" s="9" t="str">
+      <c r="H66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1065',</v>
       </c>
-      <c r="I66" s="9" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" si="1"/>
         <v>'Nama Komponen' =&gt; 'RING PLAT WP 8',</v>
       </c>
-      <c r="J66" s="9" t="str">
+      <c r="J66" s="6" t="str">
         <f t="shared" si="2"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K66" s="9" t="str">
+      <c r="K66" s="6" t="str">
         <f t="shared" si="3"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L66" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>'KODE MOBIL' =&gt; 'EL',</v>
-      </c>
-      <c r="M66" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O66" s="8" t="s">
+      <c r="L66" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>'KODE MOBIL' =&gt; 'EL',</v>
+      </c>
+      <c r="M66" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O66" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P66" t="str">
@@ -5382,7 +5382,7 @@
       <c r="B67" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5397,34 +5397,34 @@
       <c r="G67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H67" s="9" t="str">
+      <c r="H67" s="6" t="str">
         <f t="shared" ref="H67:H74" si="7">CONCATENATE($H$1," =&gt; ","'",A67,"'",",")</f>
         <v>'Kode Komponen' =&gt; 'J02SMRL1066',</v>
       </c>
-      <c r="I67" s="9" t="str">
+      <c r="I67" s="6" t="str">
         <f t="shared" ref="I67:I74" si="8">CONCATENATE($I$1," =&gt; ","'",B67,"'",",")</f>
         <v>'Nama Komponen' =&gt; 'FRAME HOUSING TUTUP BBM LH NEW ELF',</v>
       </c>
-      <c r="J67" s="9" t="str">
+      <c r="J67" s="6" t="str">
         <f t="shared" ref="J67:J74" si="9">CONCATENATE($J$1," =&gt; ","'",D67,"'",",")</f>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K67" s="9" t="str">
+      <c r="K67" s="6" t="str">
         <f t="shared" ref="K67:K74" si="10">CONCATENATE($K$1," =&gt; ","'",E67,"'",",")</f>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L67" s="9" t="str">
+      <c r="L67" s="6" t="str">
         <f t="shared" ref="L67:L74" si="11">CONCATENATE($L$1," =&gt; ","'",F67,"'",",")</f>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M67" s="9" t="str">
+      <c r="M67" s="6" t="str">
         <f t="shared" ref="M67:M74" si="12">CONCATENATE($M$1," =&gt; ","'",G67,"'",",")</f>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N67" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O67" s="8" t="s">
+      <c r="N67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O67" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P67" t="str">
@@ -5440,7 +5440,7 @@
       <c r="B68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="7">
         <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5455,34 +5455,34 @@
       <c r="G68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H68" s="9" t="str">
+      <c r="H68" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1067',</v>
       </c>
-      <c r="I68" s="9" t="str">
+      <c r="I68" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'FRAME HOUSING TUTUP BBM RH NEW ELF',</v>
       </c>
-      <c r="J68" s="9" t="str">
+      <c r="J68" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K68" s="9" t="str">
+      <c r="K68" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L68" s="9" t="str">
+      <c r="L68" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M68" s="9" t="str">
+      <c r="M68" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O68" s="8" t="s">
+      <c r="N68" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P68" t="str">
@@ -5498,7 +5498,7 @@
       <c r="B69" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="7">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5513,34 +5513,34 @@
       <c r="G69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="9" t="str">
+      <c r="H69" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1068',</v>
       </c>
-      <c r="I69" s="9" t="str">
+      <c r="I69" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'PIPA PENYANGGA BELAKANG',</v>
       </c>
-      <c r="J69" s="9" t="str">
+      <c r="J69" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K69" s="9" t="str">
+      <c r="K69" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L69" s="9" t="str">
+      <c r="L69" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M69" s="9" t="str">
+      <c r="M69" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O69" s="8" t="s">
+      <c r="N69" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O69" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P69" t="str">
@@ -5556,7 +5556,7 @@
       <c r="B70" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="7">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -5571,34 +5571,34 @@
       <c r="G70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="9" t="str">
+      <c r="H70" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1069',</v>
       </c>
-      <c r="I70" s="9" t="str">
+      <c r="I70" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'SIKU PENGUAT PADA RUMAH ENGSEL PBA',</v>
       </c>
-      <c r="J70" s="9" t="str">
+      <c r="J70" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K70" s="9" t="str">
+      <c r="K70" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L70" s="9" t="str">
+      <c r="L70" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M70" s="9" t="str">
+      <c r="M70" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O70" s="8" t="s">
+      <c r="N70" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O70" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P70" t="str">
@@ -5614,7 +5614,7 @@
       <c r="B71" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="7">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5629,34 +5629,34 @@
       <c r="G71" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="9" t="str">
+      <c r="H71" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1070',</v>
       </c>
-      <c r="I71" s="9" t="str">
+      <c r="I71" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'INNER PILLAR BELAKANG PBA LH FUSO',</v>
       </c>
-      <c r="J71" s="9" t="str">
+      <c r="J71" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K71" s="9" t="str">
+      <c r="K71" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L71" s="9" t="str">
+      <c r="L71" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M71" s="9" t="str">
+      <c r="M71" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N71" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O71" s="8" t="s">
+      <c r="N71" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O71" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P71" t="str">
@@ -5672,7 +5672,7 @@
       <c r="B72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="7">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -5687,34 +5687,34 @@
       <c r="G72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="9" t="str">
+      <c r="H72" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1071',</v>
       </c>
-      <c r="I72" s="9" t="str">
+      <c r="I72" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'INNER PILLAR BELAKANG PBA RH FUSO',</v>
       </c>
-      <c r="J72" s="9" t="str">
+      <c r="J72" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K72" s="9" t="str">
+      <c r="K72" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L72" s="9" t="str">
+      <c r="L72" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M72" s="9" t="str">
+      <c r="M72" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N72" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O72" s="8" t="s">
+      <c r="N72" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O72" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P72" t="str">
@@ -5730,7 +5730,7 @@
       <c r="B73" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -5745,34 +5745,34 @@
       <c r="G73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="9" t="str">
+      <c r="H73" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMRL1072',</v>
       </c>
-      <c r="I73" s="9" t="str">
+      <c r="I73" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'TUTUP ENGSEL PBA NEW ELF',</v>
       </c>
-      <c r="J73" s="9" t="str">
+      <c r="J73" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; 'A04',</v>
       </c>
-      <c r="K73" s="9" t="str">
+      <c r="K73" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; 'KIT STALL 4 BODY WELDING',</v>
       </c>
-      <c r="L73" s="9" t="str">
+      <c r="L73" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL',</v>
       </c>
-      <c r="M73" s="9" t="str">
+      <c r="M73" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; '5 PINTU PISAH',</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O73" s="8" t="s">
+      <c r="N73" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O73" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P73" t="str">
@@ -5788,7 +5788,7 @@
       <c r="B74" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -5797,34 +5797,34 @@
       <c r="G74" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="9" t="str">
+      <c r="H74" s="6" t="str">
         <f t="shared" si="7"/>
         <v>'Kode Komponen' =&gt; 'J02SMPRL2001',</v>
       </c>
-      <c r="I74" s="9" t="str">
+      <c r="I74" s="6" t="str">
         <f t="shared" si="8"/>
         <v>'Nama Komponen' =&gt; 'TUTUP TRAP',</v>
       </c>
-      <c r="J74" s="9" t="str">
+      <c r="J74" s="6" t="str">
         <f t="shared" si="9"/>
         <v>'KODE KIT' =&gt; '',</v>
       </c>
-      <c r="K74" s="9" t="str">
+      <c r="K74" s="6" t="str">
         <f t="shared" si="10"/>
         <v>'KIT' =&gt; '',</v>
       </c>
-      <c r="L74" s="9" t="str">
+      <c r="L74" s="6" t="str">
         <f t="shared" si="11"/>
         <v>'KODE MOBIL' =&gt; 'EL ',</v>
       </c>
-      <c r="M74" s="9" t="str">
+      <c r="M74" s="6" t="str">
         <f t="shared" si="12"/>
         <v>'PARAMETER 1' =&gt; 'PASANG TUTUP TRAP',</v>
       </c>
-      <c r="N74" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O74" s="8" t="s">
+      <c r="N74" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O74" s="5" t="s">
         <v>192</v>
       </c>
       <c r="P74" t="str">

--- a/File dari Pak Eflan/PERCOBAAN PROGRAM PPIC.xlsx
+++ b/File dari Pak Eflan/PERCOBAAN PROGRAM PPIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Project Magang\ProjectMagang\File dari Pak Eflan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Magang\ProjectMagang\File dari Pak Eflan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9908F49-5807-4F7C-BEE5-15922EE8BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E227F5-D143-40A8-BBEE-17F936D7998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" HASIL KESELURUHAN" sheetId="1" r:id="rId1"/>
@@ -900,8 +900,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1376,9 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1533,7 +1535,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
